--- a/build/config/excel/common/EffectData.xlsx
+++ b/build/config/excel/common/EffectData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\squick\build\config\excel\common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE71F338-1E7C-4644-8CE1-EF8F035E54DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="23640"/>
+    <workbookView xWindow="-113" yWindow="614" windowWidth="32281" windowHeight="19533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,20 +18,20 @@
     <sheet name="Record_CommValue" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0">
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -696,14 +702,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -721,163 +721,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,204 +758,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1219,251 +893,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1525,71 +957,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1599,13 +983,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="1">
+    <tableStyle name="MySqlDefault" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1934,43 +1321,42 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="$A11:$XFD12"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="24.3076923076923" customWidth="1"/>
-    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
-    <col min="3" max="3" width="28.5384615384615" customWidth="1"/>
-    <col min="4" max="4" width="18.3076923076923" customWidth="1"/>
-    <col min="5" max="7" width="11.6634615384615" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.3365384615385" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="26" width="16.5288461538462" customWidth="1"/>
-    <col min="27" max="27" width="14.4230769230769" customWidth="1"/>
-    <col min="28" max="28" width="16.5288461538462" customWidth="1"/>
-    <col min="29" max="29" width="21.7692307692308" customWidth="1"/>
-    <col min="30" max="30" width="26.4615384615385" customWidth="1"/>
-    <col min="31" max="31" width="23.2307692307692" customWidth="1"/>
-    <col min="32" max="32" width="21.1538461538462" customWidth="1"/>
-    <col min="33" max="33" width="15.7307692307692" customWidth="1"/>
+    <col min="12" max="26" width="16.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" customWidth="1"/>
+    <col min="29" max="29" width="21.77734375" customWidth="1"/>
+    <col min="30" max="30" width="26.44140625" customWidth="1"/>
+    <col min="31" max="31" width="23.21875" customWidth="1"/>
+    <col min="32" max="32" width="21.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="34" spans="1:33">
+    <row r="1" spans="1:33" s="9" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +1457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="17" spans="1:33">
+    <row r="2" spans="1:33" s="10" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -2172,7 +1558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="10" customFormat="1">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2273,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="10" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -2374,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="10" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
@@ -2475,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="10" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" ht="17" spans="1:33">
+    <row r="7" spans="1:33" s="11" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -2677,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="17" spans="1:33">
+    <row r="8" spans="1:33" s="11" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>40</v>
       </c>
@@ -2778,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" ht="17" spans="1:33">
+    <row r="9" spans="1:33" s="11" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
@@ -2879,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="17.75" spans="1:33">
+    <row r="10" spans="1:33" s="12" customFormat="1">
       <c r="A10" s="16" t="s">
         <v>42</v>
       </c>
@@ -2978,7 +2364,7 @@
       </c>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33">
       <c r="A11" s="18" t="s">
         <v>74</v>
       </c>
@@ -3079,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33">
       <c r="A12" s="18" t="s">
         <v>75</v>
       </c>
@@ -3218,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3319,7 +2705,7 @@
         <v>50</v>
       </c>
       <c r="M14">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3420,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="M15">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3521,7 +2907,7 @@
         <v>150</v>
       </c>
       <c r="M16">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3622,7 +3008,7 @@
         <v>200</v>
       </c>
       <c r="M17">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3723,7 +3109,7 @@
         <v>250</v>
       </c>
       <c r="M18">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3824,7 +3210,7 @@
         <v>300</v>
       </c>
       <c r="M19">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3925,7 +3311,7 @@
         <v>350</v>
       </c>
       <c r="M20">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -4026,7 +3412,7 @@
         <v>400</v>
       </c>
       <c r="M21">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -4127,7 +3513,7 @@
         <v>450</v>
       </c>
       <c r="M22">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -4228,7 +3614,7 @@
         <v>500</v>
       </c>
       <c r="M23">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -4329,7 +3715,7 @@
         <v>550</v>
       </c>
       <c r="M24">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4430,7 +3816,7 @@
         <v>600</v>
       </c>
       <c r="M25">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -4531,7 +3917,7 @@
         <v>650</v>
       </c>
       <c r="M26">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -4632,7 +4018,7 @@
         <v>700</v>
       </c>
       <c r="M27">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4733,7 +4119,7 @@
         <v>750</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4834,7 +4220,7 @@
         <v>800</v>
       </c>
       <c r="M29">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4935,7 +4321,7 @@
         <v>850</v>
       </c>
       <c r="M30">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -5036,7 +4422,7 @@
         <v>900</v>
       </c>
       <c r="M31">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -5137,7 +4523,7 @@
         <v>950</v>
       </c>
       <c r="M32">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -5238,7 +4624,7 @@
         <v>1000</v>
       </c>
       <c r="M33">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -5339,7 +4725,7 @@
         <v>1050</v>
       </c>
       <c r="M34">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -5440,7 +4826,7 @@
         <v>1100</v>
       </c>
       <c r="M35">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -5541,7 +4927,7 @@
         <v>1150</v>
       </c>
       <c r="M36">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -5642,7 +5028,7 @@
         <v>1200</v>
       </c>
       <c r="M37">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -5743,7 +5129,7 @@
         <v>1250</v>
       </c>
       <c r="M38">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -5844,7 +5230,7 @@
         <v>1300</v>
       </c>
       <c r="M39">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5945,7 +5331,7 @@
         <v>1350</v>
       </c>
       <c r="M40">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -6046,7 +5432,7 @@
         <v>1400</v>
       </c>
       <c r="M41">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -6147,7 +5533,7 @@
         <v>1450</v>
       </c>
       <c r="M42">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -6248,7 +5634,7 @@
         <v>1500</v>
       </c>
       <c r="M43">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -6349,7 +5735,7 @@
         <v>1550</v>
       </c>
       <c r="M44">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -6450,7 +5836,7 @@
         <v>1600</v>
       </c>
       <c r="M45">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -6551,7 +5937,7 @@
         <v>1650</v>
       </c>
       <c r="M46">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -6652,7 +6038,7 @@
         <v>1700</v>
       </c>
       <c r="M47">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -6753,7 +6139,7 @@
         <v>1750</v>
       </c>
       <c r="M48">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -6854,7 +6240,7 @@
         <v>1800</v>
       </c>
       <c r="M49">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -6955,7 +6341,7 @@
         <v>1850</v>
       </c>
       <c r="M50">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -7056,7 +6442,7 @@
         <v>1900</v>
       </c>
       <c r="M51">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -7157,7 +6543,7 @@
         <v>1950</v>
       </c>
       <c r="M52">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -7258,7 +6644,7 @@
         <v>2000</v>
       </c>
       <c r="M53">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -7359,7 +6745,7 @@
         <v>2050</v>
       </c>
       <c r="M54">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -7460,7 +6846,7 @@
         <v>2100</v>
       </c>
       <c r="M55">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -7561,7 +6947,7 @@
         <v>2150</v>
       </c>
       <c r="M56">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -7662,7 +7048,7 @@
         <v>2200</v>
       </c>
       <c r="M57">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -7763,7 +7149,7 @@
         <v>2250</v>
       </c>
       <c r="M58">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -7864,7 +7250,7 @@
         <v>2300</v>
       </c>
       <c r="M59">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -7965,7 +7351,7 @@
         <v>2350</v>
       </c>
       <c r="M60">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -8066,7 +7452,7 @@
         <v>2400</v>
       </c>
       <c r="M61">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -8167,7 +7553,7 @@
         <v>2450</v>
       </c>
       <c r="M62">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -8268,7 +7654,7 @@
         <v>2500</v>
       </c>
       <c r="M63">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -8369,7 +7755,7 @@
         <v>2550</v>
       </c>
       <c r="M64">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -8470,7 +7856,7 @@
         <v>2600</v>
       </c>
       <c r="M65">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -8571,7 +7957,7 @@
         <v>2650</v>
       </c>
       <c r="M66">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -8672,7 +8058,7 @@
         <v>2700</v>
       </c>
       <c r="M67">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -8773,7 +8159,7 @@
         <v>2750</v>
       </c>
       <c r="M68">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -8874,7 +8260,7 @@
         <v>2800</v>
       </c>
       <c r="M69">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -8975,7 +8361,7 @@
         <v>2850</v>
       </c>
       <c r="M70">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -9076,7 +8462,7 @@
         <v>2900</v>
       </c>
       <c r="M71">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -9177,7 +8563,7 @@
         <v>2950</v>
       </c>
       <c r="M72">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -9278,7 +8664,7 @@
         <v>3000</v>
       </c>
       <c r="M73">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -9379,7 +8765,7 @@
         <v>3050</v>
       </c>
       <c r="M74">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -9480,7 +8866,7 @@
         <v>3100</v>
       </c>
       <c r="M75">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -9581,7 +8967,7 @@
         <v>3150</v>
       </c>
       <c r="M76">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -9682,7 +9068,7 @@
         <v>3200</v>
       </c>
       <c r="M77">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -9783,7 +9169,7 @@
         <v>3250</v>
       </c>
       <c r="M78">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -9884,7 +9270,7 @@
         <v>3300</v>
       </c>
       <c r="M79">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -9985,7 +9371,7 @@
         <v>3350</v>
       </c>
       <c r="M80">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -10086,7 +9472,7 @@
         <v>3400</v>
       </c>
       <c r="M81">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -10187,7 +9573,7 @@
         <v>3450</v>
       </c>
       <c r="M82">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -10288,7 +9674,7 @@
         <v>3500</v>
       </c>
       <c r="M83">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -10389,7 +9775,7 @@
         <v>3550</v>
       </c>
       <c r="M84">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -10490,7 +9876,7 @@
         <v>3600</v>
       </c>
       <c r="M85">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -10591,7 +9977,7 @@
         <v>3650</v>
       </c>
       <c r="M86">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -10692,7 +10078,7 @@
         <v>3700</v>
       </c>
       <c r="M87">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -10793,7 +10179,7 @@
         <v>3750</v>
       </c>
       <c r="M88">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -10894,7 +10280,7 @@
         <v>3800</v>
       </c>
       <c r="M89">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -10995,7 +10381,7 @@
         <v>3850</v>
       </c>
       <c r="M90">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -11096,7 +10482,7 @@
         <v>3900</v>
       </c>
       <c r="M91">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -11197,7 +10583,7 @@
         <v>3950</v>
       </c>
       <c r="M92">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -11298,7 +10684,7 @@
         <v>4000</v>
       </c>
       <c r="M93">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -11399,7 +10785,7 @@
         <v>4050</v>
       </c>
       <c r="M94">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -11500,7 +10886,7 @@
         <v>4100</v>
       </c>
       <c r="M95">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -11601,7 +10987,7 @@
         <v>4150</v>
       </c>
       <c r="M96">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -11702,7 +11088,7 @@
         <v>4200</v>
       </c>
       <c r="M97">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -11803,7 +11189,7 @@
         <v>4250</v>
       </c>
       <c r="M98">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -11904,7 +11290,7 @@
         <v>4300</v>
       </c>
       <c r="M99">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -12005,7 +11391,7 @@
         <v>4350</v>
       </c>
       <c r="M100">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -12106,7 +11492,7 @@
         <v>4400</v>
       </c>
       <c r="M101">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -12207,7 +11593,7 @@
         <v>4450</v>
       </c>
       <c r="M102">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -12308,7 +11694,7 @@
         <v>4500</v>
       </c>
       <c r="M103">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -12409,7 +11795,7 @@
         <v>4550</v>
       </c>
       <c r="M104">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -12510,7 +11896,7 @@
         <v>4600</v>
       </c>
       <c r="M105">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -12611,7 +11997,7 @@
         <v>4650</v>
       </c>
       <c r="M106">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -12712,7 +12098,7 @@
         <v>4700</v>
       </c>
       <c r="M107">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -12813,7 +12199,7 @@
         <v>4750</v>
       </c>
       <c r="M108">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -12914,7 +12300,7 @@
         <v>4800</v>
       </c>
       <c r="M109">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -13015,7 +12401,7 @@
         <v>4850</v>
       </c>
       <c r="M110">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -13116,7 +12502,7 @@
         <v>4900</v>
       </c>
       <c r="M111">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -13217,7 +12603,7 @@
         <v>4950</v>
       </c>
       <c r="M112">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -13281,52 +12667,51 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q9 U7:U9 V7:V9 W7:W9 AA7:AA9 AG7:AG9 R7:T9 X7:Z9 H7:P9 B7:G9 AB7:AF9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AG9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="24.3076923076923" customWidth="1"/>
-    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
-    <col min="3" max="3" width="28.5384615384615" customWidth="1"/>
-    <col min="4" max="4" width="18.3076923076923" customWidth="1"/>
-    <col min="5" max="7" width="11.6634615384615" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.3365384615385" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="26" width="16.5288461538462" customWidth="1"/>
-    <col min="27" max="27" width="14.4230769230769" customWidth="1"/>
-    <col min="28" max="28" width="16.5288461538462" customWidth="1"/>
-    <col min="29" max="29" width="21.7692307692308" customWidth="1"/>
-    <col min="30" max="30" width="26.4615384615385" customWidth="1"/>
-    <col min="31" max="31" width="23.2307692307692" customWidth="1"/>
-    <col min="32" max="32" width="21.1538461538462" customWidth="1"/>
-    <col min="33" max="33" width="15.7307692307692" customWidth="1"/>
+    <col min="12" max="26" width="16.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" customWidth="1"/>
+    <col min="29" max="29" width="21.77734375" customWidth="1"/>
+    <col min="30" max="30" width="26.44140625" customWidth="1"/>
+    <col min="31" max="31" width="23.21875" customWidth="1"/>
+    <col min="32" max="32" width="21.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="34" spans="1:33">
+    <row r="1" spans="1:33" s="9" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13427,7 +12812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="17" spans="1:33">
+    <row r="2" spans="1:33" s="10" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -13528,7 +12913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="10" customFormat="1">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -13629,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="10" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -13730,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="10" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
@@ -13831,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="10" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -13932,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" ht="17" spans="1:33">
+    <row r="7" spans="1:33" s="11" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -14033,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="17" spans="1:33">
+    <row r="8" spans="1:33" s="11" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>40</v>
       </c>
@@ -14134,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" ht="17" spans="1:33">
+    <row r="9" spans="1:33" s="11" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
@@ -14235,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="17.75" spans="1:33">
+    <row r="10" spans="1:33" s="12" customFormat="1">
       <c r="A10" s="16" t="s">
         <v>42</v>
       </c>
@@ -14941,58 +14326,58 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q9 U7:U9 V7:V9 W7:W9 AA7:AA9 AG7:AG9 R7:T9 X7:Z9 H7:P9 B7:G9 AB7:AF9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q9 U7:U9 V7:V9 W7:W9 AA7:AA9 AG7:AG9 R7:T9 X7:Z9 H7:P9 B7:G9 AB7:AF9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="19.3365384615385" customWidth="1"/>
-    <col min="2" max="2" width="60.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="7.16346153846154" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6634615384615" customWidth="1"/>
-    <col min="8" max="9" width="9.16346153846154" customWidth="1"/>
-    <col min="10" max="12" width="12.6634615384615" customWidth="1"/>
-    <col min="13" max="13" width="21.1634615384615" customWidth="1"/>
-    <col min="14" max="14" width="10.3365384615385" customWidth="1"/>
-    <col min="15" max="16" width="11.6634615384615" customWidth="1"/>
-    <col min="17" max="17" width="10.3365384615385" customWidth="1"/>
-    <col min="18" max="18" width="9.16346153846154" customWidth="1"/>
-    <col min="19" max="19" width="12.6634615384615" customWidth="1"/>
-    <col min="20" max="20" width="10.3365384615385" customWidth="1"/>
-    <col min="21" max="22" width="15.1634615384615" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="22" width="15.109375" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="12.6634615384615" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="27" width="11.6634615384615" customWidth="1"/>
-    <col min="28" max="28" width="15.1634615384615" customWidth="1"/>
-    <col min="29" max="29" width="12.6634615384615" customWidth="1"/>
+    <col min="26" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="15.109375" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
     <col min="30" max="32" width="14" customWidth="1"/>
-    <col min="33" max="34" width="15.1634615384615" customWidth="1"/>
+    <col min="33" max="34" width="15.109375" customWidth="1"/>
     <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="15.1634615384615" customWidth="1"/>
+    <col min="36" max="36" width="15.109375" customWidth="1"/>
     <col min="37" max="37" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15000,7 +14385,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:32" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>183</v>
       </c>
@@ -15008,7 +14393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:32" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>184</v>
       </c>
@@ -15016,7 +14401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:32" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -15024,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" spans="1:32" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -15032,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+    <row r="6" spans="1:32" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -15040,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
+    <row r="7" spans="1:32" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -15048,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:2">
+    <row r="8" spans="1:32" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -15056,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:2">
+    <row r="9" spans="1:32" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -15064,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="17.75" spans="1:2">
+    <row r="10" spans="1:32" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>185</v>
       </c>
@@ -15072,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:32">
+    <row r="11" spans="1:32" s="2" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -15170,7 +14555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:32">
+    <row r="12" spans="1:32" s="2" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -15268,7 +14653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:32">
+    <row r="13" spans="1:32" s="2" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -15304,29 +14689,29 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="23" customFormat="1" spans="12:13">
+    <row r="23" spans="12:17">
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="26" customFormat="1" spans="15:17">
+    <row r="26" spans="12:17">
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B10 A4:B5 D13:G1048576 D1:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B10 A4:B5 D13:G1048576 D1:G10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D11:G11 I11:O11 A12:C12 D12:O12 P12 V12 W12 AF12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 AF23 I26:N26 R26:U26 V26 W26:AE26 AF26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 AF1:AF10 AF13:AF22 AF24:AF25 AF27:AF1048576 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25 AG$1:AM$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D11:G11 I11:O11 A12:C12 D12:O12 P12 V12 W12 AF12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 AF23 I26:N26 R26:U26 V26 W26:AE26 AF26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 AF1:AF10 AF13:AF22 AF24:AF25 AF27:AF1048576 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25 AG1:AM1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C1:C10 A2:B3 B14:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C1:C10 A2:B3 B14:C1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>